--- a/input/emis_LMR.xlsx
+++ b/input/emis_LMR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/PiN_app_dev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38755DF3-276D-41A5-8C99-695812A3BE36}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F398BFB2-8C29-47BC-933D-58CEFEFC0BD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-19290" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="3" r:id="rId1"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="6">
-        <v>200000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
